--- a/data_chart/241230wavelength_chart.xlsx
+++ b/data_chart/241230wavelength_chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="22056" windowHeight="11208"/>
+    <workbookView xWindow="-2148" yWindow="3132" windowWidth="22056" windowHeight="11208"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +88,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,12 +395,14 @@
   <dimension ref="A1:E406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3:E403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -438,7 +437,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1000000</v>
       </c>
       <c r="B3" s="2">
@@ -459,7 +458,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>1020000</v>
       </c>
       <c r="B4" s="2">
@@ -480,7 +479,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1050000</v>
       </c>
       <c r="B5" s="2">
@@ -501,7 +500,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1070000</v>
       </c>
       <c r="B6" s="2">
@@ -522,7 +521,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>1100000</v>
       </c>
       <c r="B7" s="2">
@@ -543,7 +542,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1120000</v>
       </c>
       <c r="B8" s="2">
@@ -564,7 +563,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1150000</v>
       </c>
       <c r="B9" s="2">
@@ -585,7 +584,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>1170000</v>
       </c>
       <c r="B10" s="2">
@@ -606,7 +605,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>1200000</v>
       </c>
       <c r="B11" s="2">
@@ -627,7 +626,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>1230000</v>
       </c>
       <c r="B12" s="2">
@@ -648,7 +647,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>1260000</v>
       </c>
       <c r="B13" s="2">
@@ -669,7 +668,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>1290000</v>
       </c>
       <c r="B14" s="2">
@@ -690,7 +689,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>1320000</v>
       </c>
       <c r="B15" s="2">
@@ -711,7 +710,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>1350000</v>
       </c>
       <c r="B16" s="2">
@@ -732,7 +731,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>1380000</v>
       </c>
       <c r="B17" s="2">
@@ -753,7 +752,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>1410000</v>
       </c>
       <c r="B18" s="2">
@@ -774,7 +773,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>1450000</v>
       </c>
       <c r="B19" s="2">
@@ -795,7 +794,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>1480000</v>
       </c>
       <c r="B20" s="2">
@@ -816,7 +815,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>1510000</v>
       </c>
       <c r="B21" s="2">
@@ -837,7 +836,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>1550000</v>
       </c>
       <c r="B22" s="2">
@@ -858,7 +857,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>1580000</v>
       </c>
       <c r="B23" s="2">
@@ -879,7 +878,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>1620000</v>
       </c>
       <c r="B24" s="2">
@@ -900,7 +899,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>1660000</v>
       </c>
       <c r="B25" s="2">
@@ -921,7 +920,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>1700000</v>
       </c>
       <c r="B26" s="2">
@@ -942,7 +941,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>1740000</v>
       </c>
       <c r="B27" s="2">
@@ -963,7 +962,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>1780000</v>
       </c>
       <c r="B28" s="2">
@@ -984,7 +983,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>1820000</v>
       </c>
       <c r="B29" s="2">
@@ -1005,7 +1004,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>1860000</v>
       </c>
       <c r="B30" s="2">
@@ -1026,7 +1025,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>1910000</v>
       </c>
       <c r="B31" s="2">
@@ -1047,7 +1046,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>1950000</v>
       </c>
       <c r="B32" s="2">
@@ -1068,7 +1067,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>2000000</v>
       </c>
       <c r="B33" s="2">
@@ -1089,7 +1088,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>2040000</v>
       </c>
       <c r="B34" s="2">
@@ -1110,7 +1109,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>2090000</v>
       </c>
       <c r="B35" s="2">
@@ -1131,7 +1130,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>2140000</v>
       </c>
       <c r="B36" s="2">
@@ -1152,7 +1151,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>2190000</v>
       </c>
       <c r="B37" s="2">
@@ -1173,7 +1172,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>2240000</v>
       </c>
       <c r="B38" s="2">
@@ -1194,7 +1193,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>2290000</v>
       </c>
       <c r="B39" s="2">
@@ -1215,7 +1214,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>2340000</v>
       </c>
       <c r="B40" s="2">
@@ -1236,7 +1235,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>2400000</v>
       </c>
       <c r="B41" s="2">
@@ -1257,7 +1256,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>2450000</v>
       </c>
       <c r="B42" s="2">
@@ -1278,7 +1277,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>2510000</v>
       </c>
       <c r="B43" s="2">
@@ -1299,7 +1298,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>2570000</v>
       </c>
       <c r="B44" s="2">
@@ -1320,7 +1319,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>2630000</v>
       </c>
       <c r="B45" s="2">
@@ -1341,7 +1340,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>2690000</v>
       </c>
       <c r="B46" s="2">
@@ -1362,7 +1361,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>2750000</v>
       </c>
       <c r="B47" s="2">
@@ -1383,7 +1382,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>2820000</v>
       </c>
       <c r="B48" s="2">
@@ -1404,7 +1403,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>2880000</v>
       </c>
       <c r="B49" s="2">
@@ -1425,7 +1424,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>2950000</v>
       </c>
       <c r="B50" s="2">
@@ -1446,7 +1445,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>3020000</v>
       </c>
       <c r="B51" s="2">
@@ -1467,7 +1466,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>3090000</v>
       </c>
       <c r="B52" s="2">
@@ -1488,7 +1487,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>3160000</v>
       </c>
       <c r="B53" s="2">
@@ -1509,7 +1508,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>3240000</v>
       </c>
       <c r="B54" s="2">
@@ -1530,7 +1529,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>3310000</v>
       </c>
       <c r="B55" s="2">
@@ -1551,7 +1550,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>3390000</v>
       </c>
       <c r="B56" s="2">
@@ -1572,7 +1571,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>3470000</v>
       </c>
       <c r="B57" s="2">
@@ -1593,7 +1592,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>3550000</v>
       </c>
       <c r="B58" s="2">
@@ -1614,7 +1613,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>3630000</v>
       </c>
       <c r="B59" s="2">
@@ -1635,7 +1634,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>3720000</v>
       </c>
       <c r="B60" s="2">
@@ -1656,7 +1655,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>3800000</v>
       </c>
       <c r="B61" s="2">
@@ -1677,7 +1676,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>3890000</v>
       </c>
       <c r="B62" s="2">
@@ -1698,7 +1697,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>3980000</v>
       </c>
       <c r="B63" s="2">
@@ -1719,7 +1718,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>4070000</v>
       </c>
       <c r="B64" s="2">
@@ -1740,7 +1739,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>4170000</v>
       </c>
       <c r="B65" s="2">
@@ -1761,7 +1760,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>4270000</v>
       </c>
       <c r="B66" s="2">
@@ -1782,7 +1781,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>4370000</v>
       </c>
       <c r="B67" s="2">
@@ -1803,7 +1802,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>4470000</v>
       </c>
       <c r="B68" s="2">
@@ -1824,7 +1823,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>4570000</v>
       </c>
       <c r="B69" s="2">
@@ -1845,7 +1844,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>4680000</v>
       </c>
       <c r="B70" s="2">
@@ -1866,7 +1865,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>4790000</v>
       </c>
       <c r="B71" s="2">
@@ -1887,7 +1886,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>4900000</v>
       </c>
       <c r="B72" s="2">
@@ -1908,7 +1907,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>5010000</v>
       </c>
       <c r="B73" s="2">
@@ -1929,7 +1928,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>5130000</v>
       </c>
       <c r="B74" s="2">
@@ -1950,7 +1949,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>5250000</v>
       </c>
       <c r="B75" s="2">
@@ -1971,7 +1970,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>5370000</v>
       </c>
       <c r="B76" s="2">
@@ -1992,7 +1991,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>5500000</v>
       </c>
       <c r="B77" s="2">
@@ -2013,7 +2012,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>5620000</v>
       </c>
       <c r="B78" s="2">
@@ -2034,7 +2033,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>5750000</v>
       </c>
       <c r="B79" s="2">
@@ -2055,7 +2054,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>5890000</v>
       </c>
       <c r="B80" s="2">
@@ -2076,7 +2075,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>6030000</v>
       </c>
       <c r="B81" s="2">
@@ -2097,7 +2096,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>6170000</v>
       </c>
       <c r="B82" s="2">
@@ -2118,7 +2117,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>6310000</v>
       </c>
       <c r="B83" s="2">
@@ -2139,7 +2138,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>6460000</v>
       </c>
       <c r="B84" s="2">
@@ -2160,7 +2159,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>6610000</v>
       </c>
       <c r="B85" s="2">
@@ -2181,7 +2180,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>6760000</v>
       </c>
       <c r="B86" s="2">
@@ -2202,7 +2201,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>6920000</v>
       </c>
       <c r="B87" s="2">
@@ -2223,7 +2222,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>7080000</v>
       </c>
       <c r="B88" s="2">
@@ -2244,7 +2243,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>7240000</v>
       </c>
       <c r="B89" s="2">
@@ -2265,7 +2264,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>7410000</v>
       </c>
       <c r="B90" s="2">
@@ -2286,7 +2285,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>7590000</v>
       </c>
       <c r="B91" s="2">
@@ -2307,7 +2306,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>7760000</v>
       </c>
       <c r="B92" s="2">
@@ -2328,7 +2327,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>7940000</v>
       </c>
       <c r="B93" s="2">
@@ -2349,7 +2348,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>8130000</v>
       </c>
       <c r="B94" s="2">
@@ -2370,7 +2369,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>8320000</v>
       </c>
       <c r="B95" s="2">
@@ -2391,7 +2390,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>8510000</v>
       </c>
       <c r="B96" s="2">
@@ -2412,7 +2411,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>8710000</v>
       </c>
       <c r="B97" s="2">
@@ -2433,7 +2432,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>8910000</v>
       </c>
       <c r="B98" s="2">
@@ -2454,7 +2453,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>9120000</v>
       </c>
       <c r="B99" s="2">
@@ -2475,7 +2474,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>9330000</v>
       </c>
       <c r="B100" s="2">
@@ -2496,7 +2495,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>9550000</v>
       </c>
       <c r="B101" s="2">
@@ -2517,7 +2516,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>9770000</v>
       </c>
       <c r="B102" s="2">
@@ -2538,7 +2537,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>10000000</v>
       </c>
       <c r="B103" s="2">
@@ -2559,7 +2558,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>10200000</v>
       </c>
       <c r="B104" s="2">
@@ -2580,7 +2579,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>10500000</v>
       </c>
       <c r="B105" s="2">
@@ -2601,7 +2600,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>10700000</v>
       </c>
       <c r="B106" s="2">
@@ -2622,7 +2621,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>11000000</v>
       </c>
       <c r="B107" s="2">
@@ -2643,7 +2642,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>11200000</v>
       </c>
       <c r="B108" s="2">
@@ -2664,7 +2663,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>11500000</v>
       </c>
       <c r="B109" s="2">
@@ -2685,7 +2684,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>11700000</v>
       </c>
       <c r="B110" s="2">
@@ -2706,7 +2705,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>12000000</v>
       </c>
       <c r="B111" s="2">
@@ -2727,7 +2726,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>12300000</v>
       </c>
       <c r="B112" s="2">
@@ -2748,7 +2747,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>12600000</v>
       </c>
       <c r="B113" s="2">
@@ -2769,7 +2768,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>12900000</v>
       </c>
       <c r="B114" s="2">
@@ -2790,7 +2789,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>13200000</v>
       </c>
       <c r="B115" s="2">
@@ -2811,7 +2810,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>13500000</v>
       </c>
       <c r="B116" s="2">
@@ -2832,7 +2831,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>13800000</v>
       </c>
       <c r="B117" s="2">
@@ -2853,7 +2852,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>14100000</v>
       </c>
       <c r="B118" s="2">
@@ -2874,7 +2873,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>14500000</v>
       </c>
       <c r="B119" s="2">
@@ -2895,7 +2894,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>14800000</v>
       </c>
       <c r="B120" s="2">
@@ -2916,7 +2915,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>15100000</v>
       </c>
       <c r="B121" s="2">
@@ -2937,7 +2936,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>15500000</v>
       </c>
       <c r="B122" s="2">
@@ -2958,7 +2957,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>15800000</v>
       </c>
       <c r="B123" s="2">
@@ -2979,7 +2978,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>16200000</v>
       </c>
       <c r="B124" s="2">
@@ -3000,7 +2999,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>16600000</v>
       </c>
       <c r="B125" s="2">
@@ -3021,7 +3020,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>17000000</v>
       </c>
       <c r="B126" s="2">
@@ -3042,7 +3041,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>17400000</v>
       </c>
       <c r="B127" s="2">
@@ -3063,7 +3062,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>17800000</v>
       </c>
       <c r="B128" s="2">
@@ -3084,7 +3083,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>18200000</v>
       </c>
       <c r="B129" s="2">
@@ -3105,7 +3104,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>18600000</v>
       </c>
       <c r="B130" s="2">
@@ -3126,7 +3125,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>19100000</v>
       </c>
       <c r="B131" s="2">
@@ -3147,7 +3146,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>19500000</v>
       </c>
       <c r="B132" s="2">
@@ -3168,7 +3167,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>20000000</v>
       </c>
       <c r="B133" s="2">
@@ -3189,7 +3188,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>20400000</v>
       </c>
       <c r="B134" s="2">
@@ -3210,7 +3209,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>20900000</v>
       </c>
       <c r="B135" s="2">
@@ -3231,7 +3230,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>21400000</v>
       </c>
       <c r="B136" s="2">
@@ -3252,7 +3251,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>21900000</v>
       </c>
       <c r="B137" s="2">
@@ -3273,7 +3272,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>22400000</v>
       </c>
       <c r="B138" s="2">
@@ -3294,7 +3293,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>22900000</v>
       </c>
       <c r="B139" s="2">
@@ -3315,7 +3314,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>23400000</v>
       </c>
       <c r="B140" s="2">
@@ -3336,7 +3335,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>24000000</v>
       </c>
       <c r="B141" s="2">
@@ -3357,7 +3356,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>24500000</v>
       </c>
       <c r="B142" s="2">
@@ -3378,7 +3377,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>25100000</v>
       </c>
       <c r="B143" s="2">
@@ -3399,7 +3398,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>25700000</v>
       </c>
       <c r="B144" s="2">
@@ -3420,7 +3419,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+      <c r="A145" s="2">
         <v>26300000</v>
       </c>
       <c r="B145" s="2">
@@ -3441,7 +3440,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>26900000</v>
       </c>
       <c r="B146" s="2">
@@ -3462,7 +3461,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+      <c r="A147" s="2">
         <v>27500000</v>
       </c>
       <c r="B147" s="2">
@@ -3483,7 +3482,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+      <c r="A148" s="2">
         <v>28200000</v>
       </c>
       <c r="B148" s="2">
@@ -3504,7 +3503,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+      <c r="A149" s="2">
         <v>28800000</v>
       </c>
       <c r="B149" s="2">
@@ -3525,7 +3524,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+      <c r="A150" s="2">
         <v>29500000</v>
       </c>
       <c r="B150" s="2">
@@ -3546,7 +3545,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+      <c r="A151" s="2">
         <v>30200000</v>
       </c>
       <c r="B151" s="2">
@@ -3567,7 +3566,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+      <c r="A152" s="2">
         <v>30900000</v>
       </c>
       <c r="B152" s="2">
@@ -3588,7 +3587,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+      <c r="A153" s="2">
         <v>31600000</v>
       </c>
       <c r="B153" s="2">
@@ -3609,7 +3608,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>32400000</v>
       </c>
       <c r="B154" s="2">
@@ -3630,7 +3629,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>33100000</v>
       </c>
       <c r="B155" s="2">
@@ -3651,7 +3650,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>33900000</v>
       </c>
       <c r="B156" s="2">
@@ -3672,7 +3671,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>34700000</v>
       </c>
       <c r="B157" s="2">
@@ -3693,7 +3692,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+      <c r="A158" s="2">
         <v>35500000</v>
       </c>
       <c r="B158" s="2">
@@ -3714,7 +3713,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+      <c r="A159" s="2">
         <v>36300000</v>
       </c>
       <c r="B159" s="2">
@@ -3735,7 +3734,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+      <c r="A160" s="2">
         <v>37200000</v>
       </c>
       <c r="B160" s="2">
@@ -3756,7 +3755,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+      <c r="A161" s="2">
         <v>38000000</v>
       </c>
       <c r="B161" s="2">
@@ -3777,7 +3776,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+      <c r="A162" s="2">
         <v>38900000</v>
       </c>
       <c r="B162" s="2">
@@ -3798,7 +3797,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+      <c r="A163" s="2">
         <v>39800000</v>
       </c>
       <c r="B163" s="2">
@@ -3819,7 +3818,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+      <c r="A164" s="2">
         <v>40700000</v>
       </c>
       <c r="B164" s="2">
@@ -3840,7 +3839,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+      <c r="A165" s="2">
         <v>41700000</v>
       </c>
       <c r="B165" s="2">
@@ -3861,7 +3860,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+      <c r="A166" s="2">
         <v>42700000</v>
       </c>
       <c r="B166" s="2">
@@ -3882,7 +3881,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+      <c r="A167" s="2">
         <v>43700000</v>
       </c>
       <c r="B167" s="2">
@@ -3903,7 +3902,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+      <c r="A168" s="2">
         <v>44700000</v>
       </c>
       <c r="B168" s="2">
@@ -3924,7 +3923,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+      <c r="A169" s="2">
         <v>45700000</v>
       </c>
       <c r="B169" s="2">
@@ -3945,7 +3944,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+      <c r="A170" s="2">
         <v>46800000</v>
       </c>
       <c r="B170" s="2">
@@ -3966,7 +3965,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+      <c r="A171" s="2">
         <v>47900000</v>
       </c>
       <c r="B171" s="2">
@@ -3987,7 +3986,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+      <c r="A172" s="2">
         <v>49000000</v>
       </c>
       <c r="B172" s="2">
@@ -4008,7 +4007,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+      <c r="A173" s="2">
         <v>50100000</v>
       </c>
       <c r="B173" s="2">
@@ -4029,7 +4028,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+      <c r="A174" s="2">
         <v>51300000</v>
       </c>
       <c r="B174" s="2">
@@ -4050,7 +4049,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+      <c r="A175" s="2">
         <v>52500000</v>
       </c>
       <c r="B175" s="2">
@@ -4071,7 +4070,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+      <c r="A176" s="2">
         <v>53700000</v>
       </c>
       <c r="B176" s="2">
@@ -4092,7 +4091,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+      <c r="A177" s="2">
         <v>55000000</v>
       </c>
       <c r="B177" s="2">
@@ -4113,7 +4112,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+      <c r="A178" s="2">
         <v>56200000</v>
       </c>
       <c r="B178" s="2">
@@ -4134,7 +4133,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+      <c r="A179" s="2">
         <v>57500000</v>
       </c>
       <c r="B179" s="2">
@@ -4155,7 +4154,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+      <c r="A180" s="2">
         <v>58900000</v>
       </c>
       <c r="B180" s="2">
@@ -4176,7 +4175,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+      <c r="A181" s="2">
         <v>60300000</v>
       </c>
       <c r="B181" s="2">
@@ -4197,7 +4196,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+      <c r="A182" s="2">
         <v>61700000</v>
       </c>
       <c r="B182" s="2">
@@ -4218,7 +4217,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+      <c r="A183" s="2">
         <v>63100000</v>
       </c>
       <c r="B183" s="2">
@@ -4239,7 +4238,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+      <c r="A184" s="2">
         <v>64600000</v>
       </c>
       <c r="B184" s="2">
@@ -4260,7 +4259,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+      <c r="A185" s="2">
         <v>66100000</v>
       </c>
       <c r="B185" s="2">
@@ -4281,7 +4280,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+      <c r="A186" s="2">
         <v>67600000</v>
       </c>
       <c r="B186" s="2">
@@ -4302,7 +4301,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+      <c r="A187" s="2">
         <v>69200000</v>
       </c>
       <c r="B187" s="2">
@@ -4323,7 +4322,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+      <c r="A188" s="2">
         <v>70800000</v>
       </c>
       <c r="B188" s="2">
@@ -4344,7 +4343,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+      <c r="A189" s="2">
         <v>72400000</v>
       </c>
       <c r="B189" s="2">
@@ -4365,7 +4364,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+      <c r="A190" s="2">
         <v>74100000</v>
       </c>
       <c r="B190" s="2">
@@ -4386,7 +4385,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+      <c r="A191" s="2">
         <v>75900000</v>
       </c>
       <c r="B191" s="2">
@@ -4407,7 +4406,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+      <c r="A192" s="2">
         <v>77600000</v>
       </c>
       <c r="B192" s="2">
@@ -4428,7 +4427,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+      <c r="A193" s="2">
         <v>79400000</v>
       </c>
       <c r="B193" s="2">
@@ -4449,7 +4448,7 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+      <c r="A194" s="2">
         <v>81300000</v>
       </c>
       <c r="B194" s="2">
@@ -4470,7 +4469,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+      <c r="A195" s="2">
         <v>83200000</v>
       </c>
       <c r="B195" s="2">
@@ -4491,7 +4490,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+      <c r="A196" s="2">
         <v>85100000</v>
       </c>
       <c r="B196" s="2">
@@ -4512,7 +4511,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+      <c r="A197" s="2">
         <v>87100000</v>
       </c>
       <c r="B197" s="2">
@@ -4533,7 +4532,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+      <c r="A198" s="2">
         <v>89100000</v>
       </c>
       <c r="B198" s="2">
@@ -4554,7 +4553,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+      <c r="A199" s="2">
         <v>91200000</v>
       </c>
       <c r="B199" s="2">
@@ -4575,7 +4574,7 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+      <c r="A200" s="2">
         <v>93300000</v>
       </c>
       <c r="B200" s="2">
@@ -4591,12 +4590,12 @@
         <v>1.4831691447409729</v>
       </c>
       <c r="E200" s="2">
-        <f t="shared" si="15"/>
+        <f>3*10^8/SQRT($E$1)/$A200</f>
         <v>1.0168095370316332</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+      <c r="A201" s="2">
         <v>95500000</v>
       </c>
       <c r="B201" s="2">
@@ -4617,7 +4616,7 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+      <c r="A202" s="2">
         <v>97700000</v>
       </c>
       <c r="B202" s="2">
@@ -4638,7 +4637,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+      <c r="A203" s="2">
         <v>100000000</v>
       </c>
       <c r="B203" s="2">
@@ -4659,7 +4658,7 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+      <c r="A204" s="2">
         <v>102000000</v>
       </c>
       <c r="B204" s="2">
@@ -4680,7 +4679,7 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+      <c r="A205" s="2">
         <v>105000000</v>
       </c>
       <c r="B205" s="2">
@@ -4701,7 +4700,7 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+      <c r="A206" s="2">
         <v>107000000</v>
       </c>
       <c r="B206" s="2">
@@ -4722,7 +4721,7 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+      <c r="A207" s="2">
         <v>110000000</v>
       </c>
       <c r="B207" s="2">
@@ -4743,7 +4742,7 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+      <c r="A208" s="2">
         <v>112000000</v>
       </c>
       <c r="B208" s="2">
@@ -4764,7 +4763,7 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+      <c r="A209" s="2">
         <v>115000000</v>
       </c>
       <c r="B209" s="2">
@@ -4785,7 +4784,7 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+      <c r="A210" s="2">
         <v>117000000</v>
       </c>
       <c r="B210" s="2">
@@ -4806,7 +4805,7 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+      <c r="A211" s="2">
         <v>120000000</v>
       </c>
       <c r="B211" s="2">
@@ -4827,7 +4826,7 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+      <c r="A212" s="2">
         <v>123000000</v>
       </c>
       <c r="B212" s="2">
@@ -4848,7 +4847,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+      <c r="A213" s="2">
         <v>126000000</v>
       </c>
       <c r="B213" s="2">
@@ -4869,7 +4868,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+      <c r="A214" s="2">
         <v>129000000</v>
       </c>
       <c r="B214" s="2">
@@ -4890,7 +4889,7 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
+      <c r="A215" s="2">
         <v>132000000</v>
       </c>
       <c r="B215" s="2">
@@ -4911,7 +4910,7 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
+      <c r="A216" s="2">
         <v>135000000</v>
       </c>
       <c r="B216" s="2">
@@ -4932,7 +4931,7 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
+      <c r="A217" s="2">
         <v>138000000</v>
       </c>
       <c r="B217" s="2">
@@ -4953,7 +4952,7 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
+      <c r="A218" s="2">
         <v>141000000</v>
       </c>
       <c r="B218" s="2">
@@ -4974,7 +4973,7 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
+      <c r="A219" s="2">
         <v>145000000</v>
       </c>
       <c r="B219" s="2">
@@ -4995,7 +4994,7 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+      <c r="A220" s="2">
         <v>148000000</v>
       </c>
       <c r="B220" s="2">
@@ -5016,7 +5015,7 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
+      <c r="A221" s="2">
         <v>151000000</v>
       </c>
       <c r="B221" s="2">
@@ -5037,7 +5036,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
+      <c r="A222" s="2">
         <v>155000000</v>
       </c>
       <c r="B222" s="2">
@@ -5058,7 +5057,7 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
+      <c r="A223" s="2">
         <v>158000000</v>
       </c>
       <c r="B223" s="2">
@@ -5079,7 +5078,7 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
+      <c r="A224" s="2">
         <v>162000000</v>
       </c>
       <c r="B224" s="2">
@@ -5100,7 +5099,7 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
+      <c r="A225" s="2">
         <v>166000000</v>
       </c>
       <c r="B225" s="2">
@@ -5121,7 +5120,7 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
+      <c r="A226" s="2">
         <v>170000000</v>
       </c>
       <c r="B226" s="2">
@@ -5142,7 +5141,7 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
+      <c r="A227" s="2">
         <v>174000000</v>
       </c>
       <c r="B227" s="2">
@@ -5163,7 +5162,7 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
+      <c r="A228" s="2">
         <v>178000000</v>
       </c>
       <c r="B228" s="2">
@@ -5184,7 +5183,7 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
+      <c r="A229" s="2">
         <v>182000000</v>
       </c>
       <c r="B229" s="2">
@@ -5205,7 +5204,7 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
+      <c r="A230" s="2">
         <v>186000000</v>
       </c>
       <c r="B230" s="2">
@@ -5226,7 +5225,7 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
+      <c r="A231" s="2">
         <v>191000000</v>
       </c>
       <c r="B231" s="2">
@@ -5247,7 +5246,7 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
+      <c r="A232" s="2">
         <v>195000000</v>
       </c>
       <c r="B232" s="2">
@@ -5268,7 +5267,7 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
+      <c r="A233" s="2">
         <v>200000000</v>
       </c>
       <c r="B233" s="2">
@@ -5289,7 +5288,7 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
+      <c r="A234" s="2">
         <v>204000000</v>
       </c>
       <c r="B234" s="2">
@@ -5310,7 +5309,7 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
+      <c r="A235" s="2">
         <v>209000000</v>
       </c>
       <c r="B235" s="2">
@@ -5331,7 +5330,7 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
+      <c r="A236" s="2">
         <v>214000000</v>
       </c>
       <c r="B236" s="2">
@@ -5352,7 +5351,7 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
+      <c r="A237" s="2">
         <v>219000000</v>
       </c>
       <c r="B237" s="2">
@@ -5373,7 +5372,7 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
+      <c r="A238" s="2">
         <v>224000000</v>
       </c>
       <c r="B238" s="2">
@@ -5394,7 +5393,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
+      <c r="A239" s="2">
         <v>229000000</v>
       </c>
       <c r="B239" s="2">
@@ -5415,7 +5414,7 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
+      <c r="A240" s="2">
         <v>234000000</v>
       </c>
       <c r="B240" s="2">
@@ -5436,7 +5435,7 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+      <c r="A241" s="2">
         <v>240000000</v>
       </c>
       <c r="B241" s="2">
@@ -5457,7 +5456,7 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
+      <c r="A242" s="2">
         <v>245000000</v>
       </c>
       <c r="B242" s="2">
@@ -5478,7 +5477,7 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
+      <c r="A243" s="2">
         <v>251000000</v>
       </c>
       <c r="B243" s="2">
@@ -5499,7 +5498,7 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
+      <c r="A244" s="2">
         <v>257000000</v>
       </c>
       <c r="B244" s="2">
@@ -5520,7 +5519,7 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
+      <c r="A245" s="2">
         <v>263000000</v>
       </c>
       <c r="B245" s="2">
@@ -5541,7 +5540,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
+      <c r="A246" s="2">
         <v>269000000</v>
       </c>
       <c r="B246" s="2">
@@ -5562,7 +5561,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
+      <c r="A247" s="2">
         <v>275000000</v>
       </c>
       <c r="B247" s="2">
@@ -5583,7 +5582,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
+      <c r="A248" s="2">
         <v>282000000</v>
       </c>
       <c r="B248" s="2">
@@ -5604,7 +5603,7 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
+      <c r="A249" s="2">
         <v>288000000</v>
       </c>
       <c r="B249" s="2">
@@ -5625,7 +5624,7 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
+      <c r="A250" s="2">
         <v>295000000</v>
       </c>
       <c r="B250" s="2">
@@ -5646,7 +5645,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
+      <c r="A251" s="2">
         <v>302000000</v>
       </c>
       <c r="B251" s="2">
@@ -5667,7 +5666,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
+      <c r="A252" s="2">
         <v>309000000</v>
       </c>
       <c r="B252" s="2">
@@ -5688,7 +5687,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
+      <c r="A253" s="2">
         <v>316000000</v>
       </c>
       <c r="B253" s="2">
@@ -5709,7 +5708,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
+      <c r="A254" s="2">
         <v>324000000</v>
       </c>
       <c r="B254" s="2">
@@ -5730,7 +5729,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
+      <c r="A255" s="2">
         <v>331000000</v>
       </c>
       <c r="B255" s="2">
@@ -5751,7 +5750,7 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
+      <c r="A256" s="2">
         <v>339000000</v>
       </c>
       <c r="B256" s="2">
@@ -5772,7 +5771,7 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
+      <c r="A257" s="2">
         <v>347000000</v>
       </c>
       <c r="B257" s="2">
@@ -5793,7 +5792,7 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
+      <c r="A258" s="2">
         <v>355000000</v>
       </c>
       <c r="B258" s="2">
@@ -5814,7 +5813,7 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
+      <c r="A259" s="2">
         <v>363000000</v>
       </c>
       <c r="B259" s="2">
@@ -5835,7 +5834,7 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
+      <c r="A260" s="2">
         <v>372000000</v>
       </c>
       <c r="B260" s="2">
@@ -5856,7 +5855,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
+      <c r="A261" s="2">
         <v>380000000</v>
       </c>
       <c r="B261" s="2">
@@ -5877,7 +5876,7 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
+      <c r="A262" s="2">
         <v>389000000</v>
       </c>
       <c r="B262" s="2">
@@ -5898,7 +5897,7 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
+      <c r="A263" s="2">
         <v>398000000</v>
       </c>
       <c r="B263" s="2">
@@ -5919,7 +5918,7 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
+      <c r="A264" s="2">
         <v>407000000</v>
       </c>
       <c r="B264" s="2">
@@ -5940,7 +5939,7 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
+      <c r="A265" s="2">
         <v>417000000</v>
       </c>
       <c r="B265" s="2">
@@ -5961,7 +5960,7 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
+      <c r="A266" s="2">
         <v>427000000</v>
       </c>
       <c r="B266" s="2">
@@ -5982,7 +5981,7 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
+      <c r="A267" s="2">
         <v>437000000</v>
       </c>
       <c r="B267" s="2">
@@ -6003,7 +6002,7 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
+      <c r="A268" s="2">
         <v>447000000</v>
       </c>
       <c r="B268" s="2">
@@ -6024,7 +6023,7 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
+      <c r="A269" s="2">
         <v>457000000</v>
       </c>
       <c r="B269" s="2">
@@ -6045,7 +6044,7 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
+      <c r="A270" s="2">
         <v>468000000</v>
       </c>
       <c r="B270" s="2">
@@ -6066,7 +6065,7 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
+      <c r="A271" s="2">
         <v>479000000</v>
       </c>
       <c r="B271" s="2">
@@ -6087,7 +6086,7 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
+      <c r="A272" s="2">
         <v>490000000</v>
       </c>
       <c r="B272" s="2">
@@ -6108,7 +6107,7 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
+      <c r="A273" s="2">
         <v>501000000</v>
       </c>
       <c r="B273" s="2">
@@ -6129,7 +6128,7 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
+      <c r="A274" s="2">
         <v>513000000</v>
       </c>
       <c r="B274" s="2">
@@ -6150,7 +6149,7 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
+      <c r="A275" s="2">
         <v>525000000</v>
       </c>
       <c r="B275" s="2">
@@ -6171,7 +6170,7 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
+      <c r="A276" s="2">
         <v>537000000</v>
       </c>
       <c r="B276" s="2">
@@ -6192,7 +6191,7 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
+      <c r="A277" s="2">
         <v>550000000</v>
       </c>
       <c r="B277" s="2">
@@ -6213,7 +6212,7 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
+      <c r="A278" s="2">
         <v>562000000</v>
       </c>
       <c r="B278" s="2">
@@ -6234,7 +6233,7 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
+      <c r="A279" s="2">
         <v>575000000</v>
       </c>
       <c r="B279" s="2">
@@ -6255,7 +6254,7 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
+      <c r="A280" s="2">
         <v>589000000</v>
       </c>
       <c r="B280" s="2">
@@ -6276,7 +6275,7 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
+      <c r="A281" s="2">
         <v>603000000</v>
       </c>
       <c r="B281" s="2">
@@ -6297,7 +6296,7 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
+      <c r="A282" s="2">
         <v>617000000</v>
       </c>
       <c r="B282" s="2">
@@ -6318,7 +6317,7 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
+      <c r="A283" s="2">
         <v>631000000</v>
       </c>
       <c r="B283" s="2">
@@ -6339,7 +6338,7 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
+      <c r="A284" s="2">
         <v>646000000</v>
       </c>
       <c r="B284" s="2">
@@ -6360,7 +6359,7 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
+      <c r="A285" s="2">
         <v>661000000</v>
       </c>
       <c r="B285" s="2">
@@ -6376,12 +6375,12 @@
         <v>0.20934898820625231</v>
       </c>
       <c r="E285" s="2">
-        <f t="shared" si="19"/>
+        <f>3*10^8/SQRT($E$1)/$A285</f>
         <v>0.14352243540854973</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
+      <c r="A286" s="2">
         <v>676000000</v>
       </c>
       <c r="B286" s="2">
@@ -6402,7 +6401,7 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
+      <c r="A287" s="2">
         <v>692000000</v>
       </c>
       <c r="B287" s="2">
@@ -6423,7 +6422,7 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
+      <c r="A288" s="2">
         <v>708000000</v>
       </c>
       <c r="B288" s="2">
@@ -6444,11 +6443,11 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
+      <c r="A289" s="2">
         <v>724000000</v>
       </c>
       <c r="B289" s="2">
-        <f t="shared" si="16"/>
+        <f>3*10^8/SQRT($B$1)/$A289</f>
         <v>0.4143646408839779</v>
       </c>
       <c r="C289" s="2">
@@ -6465,7 +6464,7 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
+      <c r="A290" s="2">
         <v>741000000</v>
       </c>
       <c r="B290" s="2">
@@ -6486,7 +6485,7 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
+      <c r="A291" s="2">
         <v>759000000</v>
       </c>
       <c r="B291" s="2">
@@ -6507,7 +6506,7 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
+      <c r="A292" s="2">
         <v>776000000</v>
       </c>
       <c r="B292" s="2">
@@ -6528,7 +6527,7 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
+      <c r="A293" s="2">
         <v>794000000</v>
       </c>
       <c r="B293" s="2">
@@ -6549,7 +6548,7 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
+      <c r="A294" s="2">
         <v>813000000</v>
       </c>
       <c r="B294" s="2">
@@ -6570,7 +6569,7 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
+      <c r="A295" s="2">
         <v>832000000</v>
       </c>
       <c r="B295" s="2">
@@ -6591,7 +6590,7 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
+      <c r="A296" s="2">
         <v>851000000</v>
       </c>
       <c r="B296" s="2">
@@ -6612,7 +6611,7 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
+      <c r="A297" s="2">
         <v>871000000</v>
       </c>
       <c r="B297" s="2">
@@ -6628,12 +6627,12 @@
         <v>0.15887449047569779</v>
       </c>
       <c r="E297" s="2">
-        <f t="shared" si="19"/>
+        <f>3*10^8/SQRT($E$1)/$A297</f>
         <v>0.10891886315160892</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
+      <c r="A298" s="2">
         <v>891000000</v>
       </c>
       <c r="B298" s="2">
@@ -6654,7 +6653,7 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
+      <c r="A299" s="2">
         <v>912000000</v>
       </c>
       <c r="B299" s="2">
@@ -6675,7 +6674,7 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
+      <c r="A300" s="2">
         <v>933000000</v>
       </c>
       <c r="B300" s="2">
@@ -6696,7 +6695,7 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
+      <c r="A301" s="2">
         <v>955000000</v>
       </c>
       <c r="B301" s="2">
@@ -6717,7 +6716,7 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
+      <c r="A302" s="2">
         <v>977000000</v>
       </c>
       <c r="B302" s="2">
@@ -6738,7 +6737,7 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
+      <c r="A303" s="2">
         <v>1000000000</v>
       </c>
       <c r="B303" s="2">
@@ -6759,7 +6758,7 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
+      <c r="A304" s="2">
         <v>1020000000</v>
       </c>
       <c r="B304" s="2">
@@ -6780,7 +6779,7 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
+      <c r="A305" s="2">
         <v>1050000000</v>
       </c>
       <c r="B305" s="2">
@@ -6801,7 +6800,7 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
+      <c r="A306" s="2">
         <v>1070000000</v>
       </c>
       <c r="B306" s="2">
@@ -6822,7 +6821,7 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
+      <c r="A307" s="2">
         <v>1100000000</v>
       </c>
       <c r="B307" s="2">
@@ -6843,7 +6842,7 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
+      <c r="A308" s="2">
         <v>1120000000</v>
       </c>
       <c r="B308" s="2">
@@ -6864,7 +6863,7 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
+      <c r="A309" s="2">
         <v>1150000000</v>
       </c>
       <c r="B309" s="2">
@@ -6885,7 +6884,7 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
+      <c r="A310" s="2">
         <v>1170000000</v>
       </c>
       <c r="B310" s="2">
@@ -6906,7 +6905,7 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
+      <c r="A311" s="2">
         <v>1200000000</v>
       </c>
       <c r="B311" s="2">
@@ -6927,7 +6926,7 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
+      <c r="A312" s="2">
         <v>1230000000</v>
       </c>
       <c r="B312" s="2">
@@ -6948,7 +6947,7 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
+      <c r="A313" s="2">
         <v>1260000000</v>
       </c>
       <c r="B313" s="2">
@@ -6969,7 +6968,7 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
+      <c r="A314" s="2">
         <v>1290000000</v>
       </c>
       <c r="B314" s="2">
@@ -6990,7 +6989,7 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
+      <c r="A315" s="2">
         <v>1320000000</v>
       </c>
       <c r="B315" s="2">
@@ -7011,7 +7010,7 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
+      <c r="A316" s="2">
         <v>1350000000</v>
       </c>
       <c r="B316" s="2">
@@ -7032,7 +7031,7 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
+      <c r="A317" s="2">
         <v>1380000000</v>
       </c>
       <c r="B317" s="2">
@@ -7053,7 +7052,7 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
+      <c r="A318" s="2">
         <v>1410000000</v>
       </c>
       <c r="B318" s="2">
@@ -7074,7 +7073,7 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
+      <c r="A319" s="2">
         <v>1450000000</v>
       </c>
       <c r="B319" s="2">
@@ -7095,7 +7094,7 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
+      <c r="A320" s="2">
         <v>1480000000</v>
       </c>
       <c r="B320" s="2">
@@ -7116,7 +7115,7 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
+      <c r="A321" s="2">
         <v>1510000000</v>
       </c>
       <c r="B321" s="2">
@@ -7137,7 +7136,7 @@
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
+      <c r="A322" s="2">
         <v>1550000000</v>
       </c>
       <c r="B322" s="2">
@@ -7158,7 +7157,7 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
+      <c r="A323" s="2">
         <v>1580000000</v>
       </c>
       <c r="B323" s="2">
@@ -7179,7 +7178,7 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
+      <c r="A324" s="2">
         <v>1620000000</v>
       </c>
       <c r="B324" s="2">
@@ -7200,7 +7199,7 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
+      <c r="A325" s="2">
         <v>1660000000</v>
       </c>
       <c r="B325" s="2">
@@ -7221,7 +7220,7 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
+      <c r="A326" s="2">
         <v>1700000000</v>
       </c>
       <c r="B326" s="2">
@@ -7242,7 +7241,7 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
+      <c r="A327" s="2">
         <v>1740000000</v>
       </c>
       <c r="B327" s="2">
@@ -7263,7 +7262,7 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
+      <c r="A328" s="2">
         <v>1780000000</v>
       </c>
       <c r="B328" s="2">
@@ -7284,7 +7283,7 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
+      <c r="A329" s="2">
         <v>1820000000</v>
       </c>
       <c r="B329" s="2">
@@ -7305,7 +7304,7 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
+      <c r="A330" s="2">
         <v>1860000000</v>
       </c>
       <c r="B330" s="2">
@@ -7326,7 +7325,7 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
+      <c r="A331" s="2">
         <v>1910000000</v>
       </c>
       <c r="B331" s="2">
@@ -7347,7 +7346,7 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
+      <c r="A332" s="2">
         <v>1950000000</v>
       </c>
       <c r="B332" s="2">
@@ -7368,7 +7367,7 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
+      <c r="A333" s="2">
         <v>2000000000</v>
       </c>
       <c r="B333" s="2">
@@ -7389,7 +7388,7 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
+      <c r="A334" s="2">
         <v>2040000000</v>
       </c>
       <c r="B334" s="2">
@@ -7410,7 +7409,7 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
+      <c r="A335" s="2">
         <v>2090000000</v>
       </c>
       <c r="B335" s="2">
@@ -7431,7 +7430,7 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
+      <c r="A336" s="2">
         <v>2140000000</v>
       </c>
       <c r="B336" s="2">
@@ -7452,7 +7451,7 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="1">
+      <c r="A337" s="2">
         <v>2190000000</v>
       </c>
       <c r="B337" s="2">
@@ -7473,7 +7472,7 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
+      <c r="A338" s="2">
         <v>2240000000</v>
       </c>
       <c r="B338" s="2">
@@ -7494,7 +7493,7 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" s="1">
+      <c r="A339" s="2">
         <v>2290000000</v>
       </c>
       <c r="B339" s="2">
@@ -7515,7 +7514,7 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
+      <c r="A340" s="2">
         <v>2340000000</v>
       </c>
       <c r="B340" s="2">
@@ -7536,7 +7535,7 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
+      <c r="A341" s="2">
         <v>2400000000</v>
       </c>
       <c r="B341" s="2">
@@ -7557,7 +7556,7 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
+      <c r="A342" s="2">
         <v>2450000000</v>
       </c>
       <c r="B342" s="2">
@@ -7578,7 +7577,7 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
+      <c r="A343" s="2">
         <v>2510000000</v>
       </c>
       <c r="B343" s="2">
@@ -7599,7 +7598,7 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
+      <c r="A344" s="2">
         <v>2570000000</v>
       </c>
       <c r="B344" s="2">
@@ -7620,7 +7619,7 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
+      <c r="A345" s="2">
         <v>2630000000</v>
       </c>
       <c r="B345" s="2">
@@ -7641,7 +7640,7 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
+      <c r="A346" s="2">
         <v>2690000000</v>
       </c>
       <c r="B346" s="2">
@@ -7662,7 +7661,7 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
+      <c r="A347" s="2">
         <v>2750000000</v>
       </c>
       <c r="B347" s="2">
@@ -7683,7 +7682,7 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
+      <c r="A348" s="2">
         <v>2820000000</v>
       </c>
       <c r="B348" s="2">
@@ -7704,7 +7703,7 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
+      <c r="A349" s="2">
         <v>2880000000</v>
       </c>
       <c r="B349" s="2">
@@ -7725,7 +7724,7 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
+      <c r="A350" s="2">
         <v>2950000000</v>
       </c>
       <c r="B350" s="2">
@@ -7746,7 +7745,7 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" s="1">
+      <c r="A351" s="2">
         <v>3020000000</v>
       </c>
       <c r="B351" s="2">
@@ -7767,7 +7766,7 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
+      <c r="A352" s="2">
         <v>3090000000</v>
       </c>
       <c r="B352" s="2">
@@ -7788,7 +7787,7 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
+      <c r="A353" s="2">
         <v>3160000000</v>
       </c>
       <c r="B353" s="2">
@@ -7809,7 +7808,7 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
+      <c r="A354" s="2">
         <v>3240000000</v>
       </c>
       <c r="B354" s="2">
@@ -7830,7 +7829,7 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
+      <c r="A355" s="2">
         <v>3310000000</v>
       </c>
       <c r="B355" s="2">
@@ -7851,7 +7850,7 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
+      <c r="A356" s="2">
         <v>3390000000</v>
       </c>
       <c r="B356" s="2">
@@ -7872,7 +7871,7 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" s="1">
+      <c r="A357" s="2">
         <v>3470000000</v>
       </c>
       <c r="B357" s="2">
@@ -7893,7 +7892,7 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="1">
+      <c r="A358" s="2">
         <v>3550000000</v>
       </c>
       <c r="B358" s="2">
@@ -7914,7 +7913,7 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="1">
+      <c r="A359" s="2">
         <v>3630000000</v>
       </c>
       <c r="B359" s="2">
@@ -7935,7 +7934,7 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="1">
+      <c r="A360" s="2">
         <v>3720000000</v>
       </c>
       <c r="B360" s="2">
@@ -7956,7 +7955,7 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="1">
+      <c r="A361" s="2">
         <v>3800000000</v>
       </c>
       <c r="B361" s="2">
@@ -7977,7 +7976,7 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="1">
+      <c r="A362" s="2">
         <v>3890000000</v>
       </c>
       <c r="B362" s="2">
@@ -7998,7 +7997,7 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="1">
+      <c r="A363" s="2">
         <v>3980000000</v>
       </c>
       <c r="B363" s="2">
@@ -8019,7 +8018,7 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="1">
+      <c r="A364" s="2">
         <v>4070000000</v>
       </c>
       <c r="B364" s="2">
@@ -8040,7 +8039,7 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A365" s="1">
+      <c r="A365" s="2">
         <v>4170000000</v>
       </c>
       <c r="B365" s="2">
@@ -8061,7 +8060,7 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="1">
+      <c r="A366" s="2">
         <v>4270000000</v>
       </c>
       <c r="B366" s="2">
@@ -8082,7 +8081,7 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="1">
+      <c r="A367" s="2">
         <v>4370000000</v>
       </c>
       <c r="B367" s="2">
@@ -8103,7 +8102,7 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="1">
+      <c r="A368" s="2">
         <v>4470000000</v>
       </c>
       <c r="B368" s="2">
@@ -8124,7 +8123,7 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="1">
+      <c r="A369" s="2">
         <v>4570000000</v>
       </c>
       <c r="B369" s="2">
@@ -8145,7 +8144,7 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="1">
+      <c r="A370" s="2">
         <v>4680000000</v>
       </c>
       <c r="B370" s="2">
@@ -8166,7 +8165,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="1">
+      <c r="A371" s="2">
         <v>4790000000</v>
       </c>
       <c r="B371" s="2">
@@ -8187,7 +8186,7 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="1">
+      <c r="A372" s="2">
         <v>4900000000</v>
       </c>
       <c r="B372" s="2">
@@ -8208,7 +8207,7 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="1">
+      <c r="A373" s="2">
         <v>5010000000</v>
       </c>
       <c r="B373" s="2">
@@ -8229,7 +8228,7 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="1">
+      <c r="A374" s="2">
         <v>5130000000</v>
       </c>
       <c r="B374" s="2">
@@ -8250,7 +8249,7 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="1">
+      <c r="A375" s="2">
         <v>5250000000</v>
       </c>
       <c r="B375" s="2">
@@ -8271,7 +8270,7 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="1">
+      <c r="A376" s="2">
         <v>5370000000</v>
       </c>
       <c r="B376" s="2">
@@ -8292,7 +8291,7 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="1">
+      <c r="A377" s="2">
         <v>5500000000</v>
       </c>
       <c r="B377" s="2">
@@ -8313,7 +8312,7 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="1">
+      <c r="A378" s="2">
         <v>5620000000</v>
       </c>
       <c r="B378" s="2">
@@ -8334,7 +8333,7 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="1">
+      <c r="A379" s="2">
         <v>5750000000</v>
       </c>
       <c r="B379" s="2">
@@ -8355,7 +8354,7 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="1">
+      <c r="A380" s="2">
         <v>5890000000</v>
       </c>
       <c r="B380" s="2">
@@ -8376,7 +8375,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="1">
+      <c r="A381" s="2">
         <v>6030000000</v>
       </c>
       <c r="B381" s="2">
@@ -8397,7 +8396,7 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
+      <c r="A382" s="2">
         <v>6170000000</v>
       </c>
       <c r="B382" s="2">
@@ -8418,7 +8417,7 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="1">
+      <c r="A383" s="2">
         <v>6310000000</v>
       </c>
       <c r="B383" s="2">
@@ -8439,7 +8438,7 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
+      <c r="A384" s="2">
         <v>6460000000</v>
       </c>
       <c r="B384" s="2">
@@ -8460,7 +8459,7 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385" s="1">
+      <c r="A385" s="2">
         <v>6610000000</v>
       </c>
       <c r="B385" s="2">
@@ -8481,7 +8480,7 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A386" s="1">
+      <c r="A386" s="2">
         <v>6760000000</v>
       </c>
       <c r="B386" s="2">
@@ -8502,7 +8501,7 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387" s="1">
+      <c r="A387" s="2">
         <v>6920000000</v>
       </c>
       <c r="B387" s="2">
@@ -8523,7 +8522,7 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="1">
+      <c r="A388" s="2">
         <v>7080000000</v>
       </c>
       <c r="B388" s="2">
@@ -8544,7 +8543,7 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" s="1">
+      <c r="A389" s="2">
         <v>7240000000</v>
       </c>
       <c r="B389" s="2">
@@ -8565,7 +8564,7 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="1">
+      <c r="A390" s="2">
         <v>7410000000</v>
       </c>
       <c r="B390" s="2">
@@ -8586,7 +8585,7 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="1">
+      <c r="A391" s="2">
         <v>7590000000</v>
       </c>
       <c r="B391" s="2">
@@ -8607,7 +8606,7 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="1">
+      <c r="A392" s="2">
         <v>7760000000</v>
       </c>
       <c r="B392" s="2">
@@ -8628,7 +8627,7 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="1">
+      <c r="A393" s="2">
         <v>7940000000</v>
       </c>
       <c r="B393" s="2">
@@ -8649,7 +8648,7 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A394" s="1">
+      <c r="A394" s="2">
         <v>8130000000</v>
       </c>
       <c r="B394" s="2">
@@ -8670,7 +8669,7 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="1">
+      <c r="A395" s="2">
         <v>8320000000</v>
       </c>
       <c r="B395" s="2">
@@ -8691,7 +8690,7 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="1">
+      <c r="A396" s="2">
         <v>8510000000</v>
       </c>
       <c r="B396" s="2">
@@ -8712,7 +8711,7 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397" s="1">
+      <c r="A397" s="2">
         <v>8710000000</v>
       </c>
       <c r="B397" s="2">
@@ -8733,7 +8732,7 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398" s="1">
+      <c r="A398" s="2">
         <v>8910000000</v>
       </c>
       <c r="B398" s="2">
@@ -8754,7 +8753,7 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" s="1">
+      <c r="A399" s="2">
         <v>9120000000</v>
       </c>
       <c r="B399" s="2">
@@ -8775,7 +8774,7 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
+      <c r="A400" s="2">
         <v>9330000000</v>
       </c>
       <c r="B400" s="2">
@@ -8796,7 +8795,7 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A401" s="1">
+      <c r="A401" s="2">
         <v>9550000000</v>
       </c>
       <c r="B401" s="2">
@@ -8817,7 +8816,7 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" s="1">
+      <c r="A402" s="2">
         <v>9770000000</v>
       </c>
       <c r="B402" s="2">
@@ -8838,7 +8837,7 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" s="1">
+      <c r="A403" s="2">
         <v>10000000000</v>
       </c>
       <c r="B403" s="2">
